--- a/macrophage_model_no_inhibition.xlsx
+++ b/macrophage_model_no_inhibition.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118052C2-DDF3-184D-BAE8-97C88DCB0505}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEE972-5A7A-6746-8219-3A5471AC325F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="560" windowWidth="30120" windowHeight="17000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="100" yWindow="560" windowWidth="30120" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
     <sheet name="reactions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
   <si>
     <t>Species information</t>
   </si>
@@ -442,9 +441,6 @@
   </si>
   <si>
     <t>nuclear factor kappa</t>
-  </si>
-  <si>
-    <t>model id</t>
   </si>
 </sst>
 </file>
@@ -566,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -591,9 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1031,211 +1024,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AU101"/>
+  <dimension ref="A1:AT101"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="16.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="12"/>
-    <col min="11" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="16.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="11"/>
+    <col min="10" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="10" customFormat="1">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:46" s="9" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="18"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-    </row>
-    <row r="2" spans="1:47" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:46" s="3" customFormat="1">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="G2" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="18" customHeight="1">
-      <c r="A3" s="9">
+    <row r="3" spans="1:46" ht="18" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="21">
+        <v>1</v>
+      </c>
+      <c r="E3" s="21">
+        <v>1</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="21">
         <v>0</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="22">
-        <v>1</v>
-      </c>
-      <c r="G3" s="22">
+      <c r="E4" s="21">
+        <v>1</v>
+      </c>
+      <c r="F4" s="21">
         <v>0.1</v>
       </c>
-      <c r="H3" s="22" t="s">
+      <c r="G4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:46">
+      <c r="A6" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:47">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="22" t="s">
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:46" s="10" customFormat="1">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="22">
+      <c r="B7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="21">
         <v>0</v>
       </c>
-      <c r="F4" s="22">
-        <v>1</v>
-      </c>
-      <c r="G4" s="22">
+      <c r="E7" s="21">
+        <v>1</v>
+      </c>
+      <c r="F7" s="21">
         <v>0.1</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="22">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>1</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="22">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:47" s="11" customFormat="1">
-      <c r="A7" s="9">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0</v>
-      </c>
-      <c r="F7" s="22">
-        <v>1</v>
-      </c>
-      <c r="G7" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
@@ -1272,37 +1247,34 @@
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-    </row>
-    <row r="8" spans="1:47" s="11" customFormat="1">
-      <c r="A8" s="9">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22" t="s">
+    </row>
+    <row r="8" spans="1:46" s="10" customFormat="1">
+      <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="22">
+      <c r="D8" s="21">
         <v>0</v>
       </c>
-      <c r="F8" s="22">
-        <v>1</v>
-      </c>
-      <c r="G8" s="22">
-        <v>1</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="21">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="J8" s="22"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -1339,125 +1311,113 @@
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-    </row>
-    <row r="9" spans="1:47">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22" t="s">
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="22">
+      <c r="D9" s="21">
         <v>0</v>
       </c>
-      <c r="F9" s="22">
-        <v>1</v>
-      </c>
-      <c r="G9" s="22">
+      <c r="E9" s="21">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21">
         <v>0.1</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:47">
-      <c r="A10" s="9">
-        <v>7</v>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0</v>
+      </c>
+      <c r="E10" s="21">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="21"/>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="22">
+      <c r="B11" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="21">
         <v>0</v>
       </c>
-      <c r="F10" s="22">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22">
+      <c r="E11" s="21">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21">
         <v>0.1</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="G11" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="11" spans="1:47">
-      <c r="A11" s="9">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="H11" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="21"/>
+    </row>
+    <row r="12" spans="1:46" s="10" customFormat="1">
+      <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="22">
+      <c r="D12" s="21">
         <v>0</v>
       </c>
-      <c r="F11" s="22">
-        <v>1</v>
-      </c>
-      <c r="G11" s="22">
+      <c r="E12" s="21">
+        <v>1</v>
+      </c>
+      <c r="F12" s="21">
         <v>0.1</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="G12" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="22"/>
-    </row>
-    <row r="12" spans="1:47" s="11" customFormat="1">
-      <c r="A12" s="9">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="22">
-        <v>1</v>
-      </c>
-      <c r="G12" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="H12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="22"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1494,35 +1454,32 @@
       <c r="AR12" s="4"/>
       <c r="AS12" s="4"/>
       <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-    </row>
-    <row r="13" spans="1:47" s="11" customFormat="1">
-      <c r="A13" s="9">
-        <v>10</v>
-      </c>
-      <c r="B13" s="22" t="s">
+    </row>
+    <row r="13" spans="1:46" s="10" customFormat="1">
+      <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="22">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
-      <c r="F13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22">
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21">
         <v>0.1</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1559,65 +1516,59 @@
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-    </row>
-    <row r="14" spans="1:47">
-      <c r="A14" s="9">
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="22">
+      <c r="H14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:46" s="10" customFormat="1">
+      <c r="A15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="21">
         <v>0</v>
       </c>
-      <c r="F14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1</v>
+      </c>
+      <c r="G15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="J14" s="22"/>
-    </row>
-    <row r="15" spans="1:47" s="11" customFormat="1">
-      <c r="A15" s="9">
-        <v>12</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="22">
-        <v>1</v>
-      </c>
-      <c r="G15" s="22">
-        <v>1</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1654,265 +1605,238 @@
       <c r="AR15" s="4"/>
       <c r="AS15" s="4"/>
       <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-    </row>
-    <row r="16" spans="1:47">
-      <c r="A16" s="9">
-        <v>13</v>
-      </c>
-      <c r="B16" s="22" t="s">
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="C16" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="22">
+      <c r="D16" s="21">
         <v>0</v>
       </c>
-      <c r="F16" s="22">
-        <v>1</v>
-      </c>
-      <c r="G16" s="22">
-        <v>1</v>
-      </c>
-      <c r="H16" s="22" t="s">
+      <c r="E16" s="21">
+        <v>1</v>
+      </c>
+      <c r="F16" s="21">
+        <v>1</v>
+      </c>
+      <c r="G16" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="22"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="9">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="I16" s="21"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="22">
+      <c r="D17" s="21">
         <v>0</v>
       </c>
-      <c r="F17" s="22">
-        <v>1</v>
-      </c>
-      <c r="G17" s="22">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22" t="s">
+      <c r="E17" s="21">
+        <v>1</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1</v>
+      </c>
+      <c r="G17" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="H17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="22"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="9">
-        <v>15</v>
-      </c>
-      <c r="B18" s="22" t="s">
+      <c r="I17" s="21"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="22">
+      <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="F18" s="22">
-        <v>1</v>
-      </c>
-      <c r="G18" s="22">
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
+      <c r="F18" s="21">
         <v>0.1</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="9">
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
+      <c r="F19" s="21">
+        <v>1</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21">
+        <v>1</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="21"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" s="22">
+      <c r="B22" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="23"/>
+      <c r="D22" s="21">
         <v>0</v>
       </c>
-      <c r="F19" s="22">
-        <v>1</v>
-      </c>
-      <c r="G19" s="22">
-        <v>1</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="22"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="9">
-        <v>17</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="22">
+      <c r="E22" s="21">
+        <v>1</v>
+      </c>
+      <c r="F22" s="21">
+        <v>1</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="23"/>
+      <c r="D23" s="21">
         <v>0</v>
       </c>
-      <c r="F20" s="22">
-        <v>1</v>
-      </c>
-      <c r="G20" s="22">
-        <v>1</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="J20" s="22"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="9">
-        <v>18</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="22">
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="21">
         <v>0</v>
       </c>
-      <c r="F21" s="22">
-        <v>1</v>
-      </c>
-      <c r="G21" s="22">
-        <v>1</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="J21" s="22"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="9">
-        <v>19</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22">
-        <v>1</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="E24" s="21">
+        <v>1</v>
+      </c>
+      <c r="F24" s="21">
+        <v>1</v>
+      </c>
+      <c r="G24" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="9">
-        <v>20</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="22">
-        <v>0</v>
-      </c>
-      <c r="F23" s="22">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22">
-        <v>1</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="9">
-        <v>21</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="22">
-        <v>0</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1921,9 +1845,9 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1932,9 +1856,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1943,9 +1867,9 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1954,9 +1878,9 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10">
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1965,9 +1889,9 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -1976,9 +1900,9 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1987,9 +1911,9 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10">
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1998,9 +1922,9 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" spans="2:10">
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2009,9 +1933,9 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="2:10">
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2020,9 +1944,9 @@
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="2:10">
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2031,9 +1955,9 @@
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="2:10">
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2042,9 +1966,9 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10">
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2053,9 +1977,9 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="2:10">
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2064,9 +1988,9 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="2:10">
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -2075,9 +1999,9 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="2:10">
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2086,9 +2010,9 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-    </row>
-    <row r="41" spans="2:10">
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
@@ -2097,9 +2021,9 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-    </row>
-    <row r="42" spans="2:10">
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2108,9 +2032,9 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-    </row>
-    <row r="43" spans="2:10">
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2119,9 +2043,9 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-    </row>
-    <row r="44" spans="2:10">
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2130,9 +2054,9 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-    </row>
-    <row r="45" spans="2:10">
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2141,9 +2065,9 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-    </row>
-    <row r="46" spans="2:10">
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2152,9 +2076,9 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-    </row>
-    <row r="47" spans="2:10">
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2163,9 +2087,9 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-    </row>
-    <row r="48" spans="2:10">
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2174,9 +2098,9 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-    </row>
-    <row r="49" spans="2:10">
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2185,9 +2109,9 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-    </row>
-    <row r="50" spans="2:10">
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2196,9 +2120,9 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-    </row>
-    <row r="51" spans="2:10">
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -2207,9 +2131,9 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-    </row>
-    <row r="52" spans="2:10">
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -2218,9 +2142,9 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-    </row>
-    <row r="53" spans="2:10">
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -2229,9 +2153,9 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-    </row>
-    <row r="54" spans="2:10">
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2240,9 +2164,9 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-    </row>
-    <row r="55" spans="2:10">
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2251,9 +2175,9 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="2:10">
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2262,9 +2186,9 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-    </row>
-    <row r="57" spans="2:10">
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2273,9 +2197,9 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-    </row>
-    <row r="58" spans="2:10">
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -2284,9 +2208,9 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="2:10">
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -2295,9 +2219,9 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="2:10">
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -2306,9 +2230,9 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="2:10">
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2317,9 +2241,9 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="2:10">
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
@@ -2328,9 +2252,9 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-    </row>
-    <row r="63" spans="2:10">
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2339,9 +2263,9 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-    </row>
-    <row r="64" spans="2:10">
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2350,9 +2274,9 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-    </row>
-    <row r="65" spans="2:10">
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2361,9 +2285,9 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-    </row>
-    <row r="66" spans="2:10">
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -2372,9 +2296,9 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-    </row>
-    <row r="67" spans="2:10">
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -2383,9 +2307,9 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-    </row>
-    <row r="68" spans="2:10">
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2394,9 +2318,9 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-    </row>
-    <row r="69" spans="2:10">
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -2405,9 +2329,9 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-    </row>
-    <row r="70" spans="2:10">
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2416,9 +2340,9 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-    </row>
-    <row r="71" spans="2:10">
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2427,9 +2351,9 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-    </row>
-    <row r="72" spans="2:10">
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2438,9 +2362,9 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-    </row>
-    <row r="73" spans="2:10">
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2449,9 +2373,9 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-    </row>
-    <row r="74" spans="2:10">
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2460,9 +2384,9 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-    </row>
-    <row r="75" spans="2:10">
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2471,9 +2395,9 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-    </row>
-    <row r="76" spans="2:10">
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2482,9 +2406,9 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-    </row>
-    <row r="77" spans="2:10">
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2493,9 +2417,9 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-    </row>
-    <row r="78" spans="2:10">
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2504,9 +2428,9 @@
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-    </row>
-    <row r="79" spans="2:10">
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2515,9 +2439,9 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-    </row>
-    <row r="80" spans="2:10">
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2526,9 +2450,9 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-    </row>
-    <row r="81" spans="2:10">
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2537,9 +2461,9 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-    </row>
-    <row r="82" spans="2:10">
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2548,9 +2472,9 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-    </row>
-    <row r="83" spans="2:10">
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2559,9 +2483,9 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-    </row>
-    <row r="84" spans="2:10">
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2570,9 +2494,9 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-    </row>
-    <row r="85" spans="2:10">
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2581,9 +2505,9 @@
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-    </row>
-    <row r="86" spans="2:10">
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2592,9 +2516,9 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-    </row>
-    <row r="87" spans="2:10">
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2603,9 +2527,9 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-    </row>
-    <row r="88" spans="2:10">
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2614,9 +2538,9 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-    </row>
-    <row r="89" spans="2:10">
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2625,9 +2549,9 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-    </row>
-    <row r="90" spans="2:10">
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -2636,9 +2560,9 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-    </row>
-    <row r="91" spans="2:10">
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2647,9 +2571,9 @@
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
-      <c r="J91" s="4"/>
-    </row>
-    <row r="92" spans="2:10">
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2658,9 +2582,9 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-    </row>
-    <row r="93" spans="2:10">
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2669,9 +2593,9 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-    </row>
-    <row r="94" spans="2:10">
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2680,9 +2604,9 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-    </row>
-    <row r="95" spans="2:10">
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2691,9 +2615,9 @@
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-    </row>
-    <row r="96" spans="2:10">
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -2702,9 +2626,9 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-    </row>
-    <row r="97" spans="2:10">
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2713,9 +2637,9 @@
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-    </row>
-    <row r="98" spans="2:10">
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -2724,9 +2648,9 @@
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-    </row>
-    <row r="99" spans="2:10">
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2735,9 +2659,9 @@
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-    </row>
-    <row r="100" spans="2:10">
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -2746,9 +2670,9 @@
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
-      <c r="J100" s="4"/>
-    </row>
-    <row r="101" spans="2:10">
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -2757,7 +2681,6 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,7 +2693,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2796,20 +2719,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" s="2" customFormat="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="25"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="24"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2851,315 +2774,315 @@
       <c r="AY1" s="1"/>
     </row>
     <row r="2" spans="1:51" s="3" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:51">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>0.25</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1.4</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>0.6</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14">
         <v>19631653</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="15">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15">
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="14">
         <v>1.4</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>0.6</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15">
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="14">
         <v>1.4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>0.6</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15">
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
         <v>1.4</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>0.6</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:51">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="15">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15">
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14">
         <v>1.4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>0.6</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="1:51" s="4" customFormat="1">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14">
         <v>1.4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>0.6</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="15">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15">
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="14">
         <v>1.4</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>0.6</v>
       </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="15">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15">
+      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="E10" s="14">
         <v>1.4</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <v>0.6</v>
       </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <v>11597988</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="14">
         <v>16466739</v>
       </c>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:51" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="15">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="14">
         <v>1.4</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <v>0.6</v>
       </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="14">
         <v>17921324</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>21757573</v>
       </c>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3201,30 +3124,30 @@
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:51" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="15">
-        <v>1</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
         <v>1.4</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <v>0.6</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3266,498 +3189,498 @@
       <c r="AY12" s="7"/>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="15">
-        <v>1</v>
-      </c>
-      <c r="E13" s="15">
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
         <v>1.4</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>0.6</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="15">
-        <v>1</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14">
         <v>1.4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <v>0.6</v>
       </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:51" ht="14" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="15">
+      <c r="D15" s="14">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
         <v>1.4</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>0.6</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:51">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
         <v>1.4</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>0.6</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14">
         <v>1.4</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>0.6</v>
       </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14">
         <v>1.4</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <v>0.6</v>
       </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15">
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14">
         <v>1.4</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <v>0.6</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="15">
-        <v>1</v>
-      </c>
-      <c r="E20" s="15">
+      <c r="D20" s="14">
+        <v>1</v>
+      </c>
+      <c r="E20" s="14">
         <v>1.4</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <v>0.6</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D21" s="15">
-        <v>1</v>
-      </c>
-      <c r="E21" s="15">
+      <c r="D21" s="14">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14">
         <v>1.4</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>0.6</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D22" s="15">
-        <v>1</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="D22" s="14">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14">
         <v>1.4</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <v>0.6</v>
       </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D23" s="15">
-        <v>1</v>
-      </c>
-      <c r="E23" s="15">
+      <c r="D23" s="14">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14">
         <v>1.4</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <v>0.6</v>
       </c>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="15">
-        <v>1</v>
-      </c>
-      <c r="E24" s="15">
+      <c r="D24" s="14">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14">
         <v>1.4</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <v>0.6</v>
       </c>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="D25" s="15">
-        <v>1</v>
-      </c>
-      <c r="E25" s="15">
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14">
         <v>1.4</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <v>0.6</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="15">
-        <v>1</v>
-      </c>
-      <c r="E26" s="15">
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14">
         <v>1.4</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <v>0.6</v>
       </c>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="15">
-        <v>1</v>
-      </c>
-      <c r="E27" s="15">
+      <c r="D27" s="14">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14">
         <v>1.4</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <v>0.6</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="15">
-        <v>1</v>
-      </c>
-      <c r="E28" s="15">
+      <c r="D28" s="14">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14">
         <v>1.4</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <v>0.6</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="15"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="15">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15">
+      <c r="D29" s="14">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14">
         <v>1.4</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <v>0.6</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>

--- a/macrophage_model_no_inhibition.xlsx
+++ b/macrophage_model_no_inhibition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Library/CloudStorage/iCloud Drive/Documents/Summer/Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3FEE972-5A7A-6746-8219-3A5471AC325F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89C9145-E1BC-DC47-BF91-0AAC750A561B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="560" windowWidth="30120" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17000" yWindow="0" windowWidth="16600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="species" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
   <si>
     <t>Species information</t>
   </si>
@@ -95,9 +95,6 @@
     <t>a MAP kinase</t>
   </si>
   <si>
-    <t>MAPK14</t>
-  </si>
-  <si>
     <t>MAPK1; MAPK3</t>
   </si>
   <si>
@@ -137,12 +134,6 @@
     <t>i1</t>
   </si>
   <si>
-    <t>neonatal rat cardiac fibroblasts</t>
-  </si>
-  <si>
-    <t>fback</t>
-  </si>
-  <si>
     <t>r1</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>r4</t>
   </si>
   <si>
-    <t>txn</t>
-  </si>
-  <si>
     <t>r5</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>r13</t>
   </si>
   <si>
-    <t>activation</t>
-  </si>
-  <si>
     <t>r14</t>
   </si>
   <si>
@@ -203,9 +188,6 @@
     <t>r17</t>
   </si>
   <si>
-    <t>human cardiac fibroblast</t>
-  </si>
-  <si>
     <t>molecule</t>
   </si>
   <si>
@@ -215,239 +197,257 @@
     <t>formyl peptide receptor 1</t>
   </si>
   <si>
+    <t>cAMP_macrophage</t>
+  </si>
+  <si>
+    <t>Ca_macrophage</t>
+  </si>
+  <si>
+    <t>ERK_macrophage</t>
+  </si>
+  <si>
+    <t>TNFa_macrophage</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage</t>
+  </si>
+  <si>
+    <t>IL1_macrophage</t>
+  </si>
+  <si>
+    <t>FPR2</t>
+  </si>
+  <si>
+    <t>formyl peptide receptor 2/ALXR</t>
+  </si>
+  <si>
+    <t>FPR1 =&gt; Ca_macrophage</t>
+  </si>
+  <si>
+    <t>FPR2 =&gt; Ca_macrophage</t>
+  </si>
+  <si>
+    <t>r8</t>
+  </si>
+  <si>
+    <t>IL6</t>
+  </si>
+  <si>
+    <t>interleukin-6</t>
+  </si>
+  <si>
+    <t>IL6_macrophage</t>
+  </si>
+  <si>
+    <t>AP1_macrophage</t>
+  </si>
+  <si>
+    <t>AP-1 transcription factor</t>
+  </si>
+  <si>
+    <t>JUN</t>
+  </si>
+  <si>
+    <t>chemokine</t>
+  </si>
+  <si>
+    <t>CCL2</t>
+  </si>
+  <si>
+    <t>C-C motif chemokine 2/MCP1</t>
+  </si>
+  <si>
+    <t>r18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ERK_macrophage =&gt; AP1_macrophage </t>
+  </si>
+  <si>
+    <t>r19</t>
+  </si>
+  <si>
+    <t>AP1_macrophage =&gt; CCL2</t>
+  </si>
+  <si>
+    <t>r20</t>
+  </si>
+  <si>
+    <t>Ras_macrophage</t>
+  </si>
+  <si>
+    <t>representing the family of GTPases</t>
+  </si>
+  <si>
+    <t>a MAP3K associated with p38 and JNK</t>
+  </si>
+  <si>
+    <t>MAP3K1</t>
+  </si>
+  <si>
+    <t>MEKK1_macrophage</t>
+  </si>
+  <si>
+    <t>Ras_macrophage =&gt; MEKK1_macrophage</t>
+  </si>
+  <si>
+    <t>IL6mRNA</t>
+  </si>
+  <si>
+    <t>IL1mRNA</t>
+  </si>
+  <si>
+    <t>TNFamRNA</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage =&gt; TNFamRNA</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage =&gt; IL1mRNA</t>
+  </si>
+  <si>
+    <t>NFKB_macrophage =&gt; IL6mRNA</t>
+  </si>
+  <si>
+    <t>TNFamRNA =&gt; TNFa_macrophage</t>
+  </si>
+  <si>
+    <t>IL1mRNA =&gt; IL1_macrophage</t>
+  </si>
+  <si>
+    <t>IL6mRNA =&gt; IL6_macrophage</t>
+  </si>
+  <si>
+    <t>FPR1 =&gt; cAMP_macrophage</t>
+  </si>
+  <si>
+    <t>nuclear factor kappa</t>
+  </si>
+  <si>
+    <t>IL6 mRNA</t>
+  </si>
+  <si>
+    <t>IL1 mRNA</t>
+  </si>
+  <si>
+    <t>TNFa mRNA</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>Calmodulin</t>
+  </si>
+  <si>
+    <t>PP3CA</t>
+  </si>
+  <si>
+    <t>Calcineurin A</t>
+  </si>
+  <si>
+    <t>NFAT</t>
+  </si>
+  <si>
+    <t>Nuclear factor of Activated T Cells</t>
+  </si>
+  <si>
+    <t>Ca_macrophage =&gt; CALM</t>
+  </si>
+  <si>
+    <t>CALM =&gt; PP3CA</t>
+  </si>
+  <si>
+    <t>PP3CA =&gt; NFAT</t>
+  </si>
+  <si>
+    <t>r21</t>
+  </si>
+  <si>
+    <t>r22</t>
+  </si>
+  <si>
+    <t>=&gt; cpd43</t>
+  </si>
+  <si>
+    <t>i2</t>
+  </si>
+  <si>
+    <t>=&gt; LPS</t>
+  </si>
+  <si>
+    <t>LPS =&gt; TLR</t>
+  </si>
+  <si>
+    <t>TLR =&gt; P13K</t>
+  </si>
+  <si>
+    <t>P13K =&gt; AKT</t>
+  </si>
+  <si>
+    <t>AKT =&gt; NFKB_macrophage</t>
+  </si>
+  <si>
+    <t>cpd43 =&gt; FPR1</t>
+  </si>
+  <si>
+    <t>cpd43 =&gt; FPR2</t>
+  </si>
+  <si>
+    <t>r23</t>
+  </si>
+  <si>
+    <t>r24</t>
+  </si>
+  <si>
+    <t>cpd43</t>
+  </si>
+  <si>
     <t>compound 43</t>
   </si>
   <si>
-    <t>interleukin-10</t>
-  </si>
-  <si>
-    <t>MAPKAPK</t>
-  </si>
-  <si>
-    <t>cpd43</t>
-  </si>
-  <si>
-    <t>Hsp27</t>
-  </si>
-  <si>
-    <t>heat shock protein 27</t>
-  </si>
-  <si>
-    <t>cAMP_macrophage</t>
-  </si>
-  <si>
-    <t>Ca_macrophage</t>
-  </si>
-  <si>
-    <t>ERK_macrophage</t>
-  </si>
-  <si>
-    <t>p38_macrophage</t>
-  </si>
-  <si>
-    <t>IL10_macrophage</t>
-  </si>
-  <si>
-    <t>TNFa_macrophage</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage</t>
-  </si>
-  <si>
-    <t>IL1_macrophage</t>
-  </si>
-  <si>
-    <t>=&gt; cpd43</t>
-  </si>
-  <si>
-    <t>cpd43 =&gt; FPR1</t>
-  </si>
-  <si>
-    <t>FPR2</t>
-  </si>
-  <si>
-    <t>formyl peptide receptor 2/ALXR</t>
-  </si>
-  <si>
-    <t>cpd43 =&gt; FPR2</t>
-  </si>
-  <si>
-    <t>FPR1 =&gt; Ca_macrophage</t>
-  </si>
-  <si>
-    <t>FPR2 =&gt; Ca_macrophage</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>p38_macrophage =&gt; NFKB_macrophage</t>
-  </si>
-  <si>
-    <t>ERK_macrophage =&gt; NFKB_macrophage</t>
-  </si>
-  <si>
-    <t>p38_macrophage =&gt; MAPKAPK</t>
-  </si>
-  <si>
-    <t>MAPKAPK =&gt; Hsp27</t>
-  </si>
-  <si>
-    <t>Hsp27 =&gt; IL10_macrophage</t>
-  </si>
-  <si>
-    <t>IL6</t>
-  </si>
-  <si>
-    <t>interleukin-6</t>
-  </si>
-  <si>
-    <t>IL6_macrophage</t>
-  </si>
-  <si>
-    <t>AP1_macrophage</t>
-  </si>
-  <si>
-    <t>AP-1 transcription factor</t>
-  </si>
-  <si>
-    <t>JUN</t>
-  </si>
-  <si>
-    <t>chemokine</t>
-  </si>
-  <si>
-    <t>CCL2</t>
-  </si>
-  <si>
-    <t>C-C motif chemokine 2/MCP1</t>
-  </si>
-  <si>
-    <t>r18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ERK_macrophage =&gt; AP1_macrophage </t>
-  </si>
-  <si>
-    <t>r19</t>
-  </si>
-  <si>
-    <t>AP1_macrophage =&gt; CCL2</t>
-  </si>
-  <si>
-    <t>FPR1 =&gt; Sos</t>
-  </si>
-  <si>
-    <t>Sos</t>
-  </si>
-  <si>
-    <t>Son of Sevenless</t>
-  </si>
-  <si>
-    <t>SOS1;SOS2</t>
-  </si>
-  <si>
-    <t>r20</t>
-  </si>
-  <si>
-    <t>IL6_macrophage =&gt;</t>
-  </si>
-  <si>
-    <t>TNFa_macrophage =&gt;</t>
-  </si>
-  <si>
-    <t>IL1_macrophage =&gt;</t>
-  </si>
-  <si>
-    <t>r21</t>
-  </si>
-  <si>
-    <t>r22</t>
-  </si>
-  <si>
-    <t>Ras_macrophage</t>
-  </si>
-  <si>
-    <t>representing the family of GTPases</t>
-  </si>
-  <si>
-    <t>Sos =&gt; Ras_macrophage</t>
-  </si>
-  <si>
-    <t>a MAP3K associated with p38 and JNK</t>
-  </si>
-  <si>
-    <t>MAP3K1</t>
-  </si>
-  <si>
-    <t>MEKK1_macrophage</t>
-  </si>
-  <si>
-    <t>MEKK1_macrophage =&gt; p38_macrophage</t>
+    <t>LPS</t>
+  </si>
+  <si>
+    <t>lipopolysaccharide</t>
+  </si>
+  <si>
+    <t>TLR</t>
+  </si>
+  <si>
+    <t>toll like receptor</t>
+  </si>
+  <si>
+    <t>enzyme</t>
+  </si>
+  <si>
+    <t>P13K</t>
+  </si>
+  <si>
+    <t>Phosphoinositide 3-kinase</t>
+  </si>
+  <si>
+    <t>AKT</t>
+  </si>
+  <si>
+    <t>Akt/Protein kinase B</t>
   </si>
   <si>
     <t>MEKK1_macrophage =&gt; ERK_macrophage</t>
   </si>
   <si>
-    <t>Ras_macrophage =&gt; MEKK1_macrophage</t>
-  </si>
-  <si>
-    <t>IL6mRNA</t>
-  </si>
-  <si>
-    <t>transcript</t>
-  </si>
-  <si>
-    <t>IL1mRNA</t>
-  </si>
-  <si>
-    <t>TNFamRNA</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage =&gt; TNFamRNA</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage =&gt; IL1mRNA</t>
-  </si>
-  <si>
-    <t>NFKB_macrophage =&gt; IL6mRNA</t>
-  </si>
-  <si>
-    <t>TNFamRNA =&gt; TNFa_macrophage</t>
-  </si>
-  <si>
-    <t>IL1mRNA =&gt; IL1_macrophage</t>
-  </si>
-  <si>
-    <t>IL6mRNA =&gt; IL6_macrophage</t>
-  </si>
-  <si>
-    <t>r23</t>
-  </si>
-  <si>
-    <t>FPR1 =&gt; cAMP_macrophage</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>o1</t>
-  </si>
-  <si>
-    <t>o2</t>
-  </si>
-  <si>
-    <t>o3</t>
-  </si>
-  <si>
-    <t>nuclear factor kappa</t>
+    <t>FPR1 =&gt; Ras_macrophage</t>
+  </si>
+  <si>
+    <t>FPR2 =&gt; Ras_macrophage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -512,11 +512,6 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -562,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -624,24 +619,26 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AT101"/>
+  <dimension ref="A1:AT71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1085,779 +1082,735 @@
       <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" ht="18" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="J2" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46">
+      <c r="A3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="24">
+        <v>1</v>
+      </c>
+      <c r="E3" s="24">
+        <v>1</v>
+      </c>
+      <c r="F3" s="24">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46">
+      <c r="A4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0</v>
+      </c>
+      <c r="E4" s="24">
+        <v>4</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="24">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="10" customFormat="1">
+      <c r="A6" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="24">
+        <v>0</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+    </row>
+    <row r="7" spans="1:46">
+      <c r="A7" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46">
+      <c r="A8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="24">
+        <v>0</v>
+      </c>
+      <c r="E8" s="24">
+        <v>1</v>
+      </c>
+      <c r="F8" s="24">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46">
+      <c r="A9" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="24">
+        <v>0</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1</v>
+      </c>
+      <c r="F9" s="24">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46">
+      <c r="A10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="24">
+        <v>0</v>
+      </c>
+      <c r="E10" s="24">
+        <v>1</v>
+      </c>
+      <c r="F10" s="24">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46">
+      <c r="A11" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0</v>
+      </c>
+      <c r="E11" s="24">
+        <v>1</v>
+      </c>
+      <c r="F11" s="24">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46">
+      <c r="A12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46">
+      <c r="A13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46">
+      <c r="A14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46">
+      <c r="A15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0</v>
+      </c>
+      <c r="E15" s="24">
+        <v>1</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46">
+      <c r="A16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24">
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="24">
+        <v>0</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="J17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="J20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="24">
+        <v>1</v>
+      </c>
+      <c r="F23" s="24">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="14"/>
+      <c r="J23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="J24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0</v>
+      </c>
+      <c r="E25" s="24">
+        <v>1</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="21">
-        <v>1</v>
-      </c>
-      <c r="E3" s="21">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="A4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="21">
+      <c r="C26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="24">
         <v>0</v>
       </c>
-      <c r="E4" s="21">
-        <v>1</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="E26" s="24">
+        <v>1</v>
+      </c>
+      <c r="F26" s="24">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="A5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="21">
-        <v>0</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>1</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-    </row>
-    <row r="7" spans="1:46" s="10" customFormat="1">
-      <c r="A7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="4"/>
-      <c r="AF7" s="4"/>
-      <c r="AG7" s="4"/>
-      <c r="AH7" s="4"/>
-      <c r="AI7" s="4"/>
-      <c r="AJ7" s="4"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AM7" s="4"/>
-      <c r="AN7" s="4"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-    </row>
-    <row r="8" spans="1:46" s="10" customFormat="1">
-      <c r="A8" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-    </row>
-    <row r="9" spans="1:46">
-      <c r="A9" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="21">
-        <v>0</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-    </row>
-    <row r="10" spans="1:46">
-      <c r="A10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="21">
-        <v>0</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="21"/>
-    </row>
-    <row r="11" spans="1:46">
-      <c r="A11" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="21" t="s">
+      <c r="H26" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="J26">
         <v>23</v>
       </c>
-      <c r="D11" s="21">
-        <v>0</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="21"/>
-    </row>
-    <row r="12" spans="1:46" s="10" customFormat="1">
-      <c r="A12" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="21">
-        <v>0</v>
-      </c>
-      <c r="E12" s="21">
-        <v>1</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-    </row>
-    <row r="13" spans="1:46" s="10" customFormat="1">
-      <c r="A13" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="21">
-        <v>0</v>
-      </c>
-      <c r="E13" s="21">
-        <v>1</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AM13" s="4"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="A14" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="21"/>
-    </row>
-    <row r="15" spans="1:46" s="10" customFormat="1">
-      <c r="A15" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="21">
-        <v>0</v>
-      </c>
-      <c r="E15" s="21">
-        <v>1</v>
-      </c>
-      <c r="F15" s="21">
-        <v>1</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="4"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-    </row>
-    <row r="16" spans="1:46">
-      <c r="A16" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="21">
-        <v>0</v>
-      </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="21">
-        <v>1</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="21"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="21">
-        <v>0</v>
-      </c>
-      <c r="E17" s="21">
-        <v>1</v>
-      </c>
-      <c r="F17" s="21">
-        <v>1</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0</v>
-      </c>
-      <c r="E18" s="21">
-        <v>1</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21">
-        <v>1</v>
-      </c>
-      <c r="F19" s="21">
-        <v>1</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1</v>
-      </c>
-      <c r="F20" s="21">
-        <v>1</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="I20" s="21"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>1</v>
-      </c>
-      <c r="F21" s="21">
-        <v>1</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="21"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="21">
-        <v>1</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="21">
-        <v>0</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-      <c r="F24" s="21">
-        <v>1</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9">
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1868,7 +1821,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1879,7 +1832,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -1890,7 +1843,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1901,7 +1854,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1912,7 +1865,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -2352,336 +2305,6 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="4"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="4"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9">
-      <c r="A83" s="4"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9">
-      <c r="A84" s="4"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9">
-      <c r="A85" s="4"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="4"/>
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="4"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="4"/>
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9">
-      <c r="A91" s="4"/>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9">
-      <c r="A92" s="4"/>
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9">
-      <c r="A93" s="4"/>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9">
-      <c r="A94" s="4"/>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9">
-      <c r="A95" s="4"/>
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9">
-      <c r="A97" s="4"/>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9">
-      <c r="A100" s="4"/>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
-      <c r="F100" s="4"/>
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
-      <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" s="4"/>
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2691,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY153"/>
+  <dimension ref="A1:AY114"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="139" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2720,19 +2343,19 @@
   <sheetData>
     <row r="1" spans="1:51" s="2" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
-      <c r="L1" s="24"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
@@ -2781,906 +2404,808 @@
         <v>2</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="K2" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="L2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:51">
+      <c r="A3" s="25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:51">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>37</v>
-      </c>
       <c r="C3" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="14">
+        <v>115</v>
+      </c>
+      <c r="D3" s="24">
         <v>0.25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="24">
         <v>1.4</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="24">
         <v>0.6</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25">
         <v>19631653</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:51">
-      <c r="A4" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="14">
+      <c r="A4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="24">
+        <v>0.25</v>
+      </c>
+      <c r="E4" s="24">
         <v>1.4</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="24">
         <v>0.6</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:51">
-      <c r="A5" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
+      <c r="A5" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="24">
+        <v>1</v>
+      </c>
+      <c r="E5" s="24">
         <v>1.4</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="24">
         <v>0.6</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="1:51">
-      <c r="A6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
+      <c r="A6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="24">
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
         <v>1.4</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="24">
         <v>0.6</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:51">
-      <c r="A7" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="14">
-        <v>1</v>
-      </c>
-      <c r="E7" s="14">
+    <row r="7" spans="1:51" s="4" customFormat="1" ht="14" customHeight="1">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1</v>
+      </c>
+      <c r="E7" s="27">
         <v>1.4</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="27">
         <v>0.6</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:51" s="4" customFormat="1">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="1:51">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="27">
+        <v>1</v>
+      </c>
+      <c r="E8" s="27">
         <v>1.4</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="27">
         <v>0.6</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:51">
-      <c r="A9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.6</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D9" s="14">
-        <v>1</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:51">
-      <c r="A10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="14">
-        <v>1</v>
-      </c>
-      <c r="E10" s="14">
+      <c r="A10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24">
         <v>1.4</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="24">
         <v>0.6</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="14">
-        <v>11597988</v>
-      </c>
-      <c r="J10" s="14">
-        <v>16466739</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:51" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="14">
-        <v>1</v>
-      </c>
-      <c r="E11" s="14">
+    <row r="11" spans="1:51">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27">
         <v>1.4</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="27">
         <v>0.6</v>
       </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="14">
-        <v>17921324</v>
-      </c>
-      <c r="J11" s="14">
-        <v>21757573</v>
-      </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
-      <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="7"/>
-      <c r="AI11" s="7"/>
-      <c r="AJ11" s="7"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="7"/>
-      <c r="AN11" s="7"/>
-      <c r="AO11" s="7"/>
-      <c r="AP11" s="7"/>
-      <c r="AQ11" s="7"/>
-      <c r="AR11" s="7"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="7"/>
-      <c r="AU11" s="7"/>
-      <c r="AV11" s="7"/>
-      <c r="AW11" s="7"/>
-      <c r="AX11" s="7"/>
-      <c r="AY11" s="7"/>
-    </row>
-    <row r="12" spans="1:51" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="14">
-        <v>1</v>
-      </c>
-      <c r="E12" s="14">
+    </row>
+    <row r="12" spans="1:51">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="27">
+        <v>1</v>
+      </c>
+      <c r="E12" s="27">
         <v>1.4</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="27">
         <v>0.6</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="7"/>
-      <c r="AI12" s="7"/>
-      <c r="AJ12" s="7"/>
-      <c r="AK12" s="7"/>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="7"/>
-      <c r="AN12" s="7"/>
-      <c r="AO12" s="7"/>
-      <c r="AP12" s="7"/>
-      <c r="AQ12" s="7"/>
-      <c r="AR12" s="7"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="7"/>
-      <c r="AU12" s="7"/>
-      <c r="AV12" s="7"/>
-      <c r="AW12" s="7"/>
-      <c r="AX12" s="7"/>
-      <c r="AY12" s="7"/>
     </row>
     <row r="13" spans="1:51">
-      <c r="A13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="D13" s="14">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
+      <c r="A13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
         <v>1.4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="24">
         <v>0.6</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:51">
-      <c r="A14" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="27">
+        <v>1</v>
+      </c>
+      <c r="E14" s="27">
         <v>1.4</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="27">
         <v>0.6</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:51" ht="14" customHeight="1">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:51">
+      <c r="A15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15" s="14">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="27">
+        <v>1</v>
+      </c>
+      <c r="E15" s="27">
         <v>1.4</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="27">
         <v>0.6</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:51">
-      <c r="A16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="14">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="27">
+        <v>1</v>
+      </c>
+      <c r="E16" s="27">
         <v>1.4</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="27">
         <v>0.6</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="14">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="27">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27">
         <v>1.4</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="27">
         <v>0.6</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D18" s="14">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="27">
+        <v>1</v>
+      </c>
+      <c r="E18" s="27">
         <v>1.4</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="27">
         <v>0.6</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="14">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14">
+      <c r="D19" s="27">
+        <v>1</v>
+      </c>
+      <c r="E19" s="27">
         <v>1.4</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="27">
         <v>0.6</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="14">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D20" s="27">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27">
         <v>1.4</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="27">
         <v>0.6</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="14">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="27">
+        <v>1</v>
+      </c>
+      <c r="E21" s="27">
         <v>1.4</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="27">
         <v>0.6</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="14">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="27">
+        <v>1</v>
+      </c>
+      <c r="E22" s="27">
         <v>1.4</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="27">
         <v>0.6</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="14">
-        <v>1</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="27">
+        <v>1</v>
+      </c>
+      <c r="E23" s="27">
         <v>1.4</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="27">
         <v>0.6</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="14">
-        <v>1</v>
-      </c>
-      <c r="E24" s="14">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="27">
+        <v>1</v>
+      </c>
+      <c r="E24" s="27">
         <v>1.4</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="27">
         <v>0.6</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="14">
-        <v>1</v>
-      </c>
-      <c r="E25" s="14">
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="27">
+        <v>1</v>
+      </c>
+      <c r="E25" s="27">
         <v>1.4</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="27">
         <v>0.6</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="14">
-        <v>1</v>
-      </c>
-      <c r="E26" s="14">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="27">
+        <v>1</v>
+      </c>
+      <c r="E26" s="27">
         <v>1.4</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="27">
         <v>0.6</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="14">
-        <v>1</v>
-      </c>
-      <c r="E27" s="14">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="27">
         <v>1.4</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="27">
         <v>0.6</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D28" s="14">
-        <v>1</v>
-      </c>
-      <c r="E28" s="14">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="27">
+        <v>1</v>
+      </c>
+      <c r="E28" s="27">
         <v>1.4</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="27">
         <v>0.6</v>
       </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="4"/>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="14">
-        <v>1</v>
-      </c>
-      <c r="E29" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="F29" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -5130,669 +4655,6 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
     </row>
-    <row r="115" spans="1:15">
-      <c r="A115" s="4"/>
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116" s="4"/>
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
-      <c r="E116" s="4"/>
-      <c r="F116" s="4"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
-      <c r="J116" s="4"/>
-      <c r="K116" s="4"/>
-      <c r="L116" s="4"/>
-      <c r="M116" s="4"/>
-      <c r="N116" s="4"/>
-      <c r="O116" s="4"/>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117" s="4"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
-      <c r="M117" s="4"/>
-      <c r="N117" s="4"/>
-      <c r="O117" s="4"/>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118" s="4"/>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119" s="4"/>
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
-      <c r="E119" s="4"/>
-      <c r="F119" s="4"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
-      <c r="J119" s="4"/>
-      <c r="K119" s="4"/>
-      <c r="L119" s="4"/>
-      <c r="M119" s="4"/>
-      <c r="N119" s="4"/>
-      <c r="O119" s="4"/>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
-      <c r="J120" s="4"/>
-      <c r="K120" s="4"/>
-      <c r="L120" s="4"/>
-      <c r="M120" s="4"/>
-      <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="4"/>
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
-      <c r="J121" s="4"/>
-      <c r="K121" s="4"/>
-      <c r="L121" s="4"/>
-      <c r="M121" s="4"/>
-      <c r="N121" s="4"/>
-      <c r="O121" s="4"/>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="4"/>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="4"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-      <c r="J122" s="4"/>
-      <c r="K122" s="4"/>
-      <c r="L122" s="4"/>
-      <c r="M122" s="4"/>
-      <c r="N122" s="4"/>
-      <c r="O122" s="4"/>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="4"/>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-    </row>
-    <row r="124" spans="1:15">
-      <c r="A124" s="4"/>
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="4"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
-      <c r="J124" s="4"/>
-      <c r="K124" s="4"/>
-      <c r="L124" s="4"/>
-      <c r="M124" s="4"/>
-      <c r="N124" s="4"/>
-      <c r="O124" s="4"/>
-    </row>
-    <row r="125" spans="1:15">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-    </row>
-    <row r="126" spans="1:15">
-      <c r="A126" s="4"/>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-    </row>
-    <row r="127" spans="1:15">
-      <c r="A127" s="4"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-    </row>
-    <row r="128" spans="1:15">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-    </row>
-    <row r="129" spans="1:15">
-      <c r="A129" s="4"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-    </row>
-    <row r="130" spans="1:15">
-      <c r="A130" s="4"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-    </row>
-    <row r="131" spans="1:15">
-      <c r="A131" s="4"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-    </row>
-    <row r="132" spans="1:15">
-      <c r="A132" s="4"/>
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-    </row>
-    <row r="133" spans="1:15">
-      <c r="A133" s="4"/>
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-    </row>
-    <row r="134" spans="1:15">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="4"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
-      <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
-      <c r="M134" s="4"/>
-      <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-    </row>
-    <row r="135" spans="1:15">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="4"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-    </row>
-    <row r="136" spans="1:15">
-      <c r="A136" s="4"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="4"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
-      <c r="M136" s="4"/>
-      <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-    </row>
-    <row r="137" spans="1:15">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
-      <c r="M137" s="4"/>
-      <c r="N137" s="4"/>
-      <c r="O137" s="4"/>
-    </row>
-    <row r="138" spans="1:15">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-    </row>
-    <row r="139" spans="1:15">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-    </row>
-    <row r="140" spans="1:15">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-    </row>
-    <row r="141" spans="1:15">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-    </row>
-    <row r="142" spans="1:15">
-      <c r="A142" s="4"/>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-    </row>
-    <row r="143" spans="1:15">
-      <c r="A143" s="4"/>
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-    </row>
-    <row r="144" spans="1:15">
-      <c r="A144" s="4"/>
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-    </row>
-    <row r="145" spans="1:15">
-      <c r="A145" s="4"/>
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
-      <c r="F145" s="4"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145" s="4"/>
-      <c r="L145" s="4"/>
-      <c r="M145" s="4"/>
-      <c r="N145" s="4"/>
-      <c r="O145" s="4"/>
-    </row>
-    <row r="146" spans="1:15">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-    </row>
-    <row r="147" spans="1:15">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-    </row>
-    <row r="148" spans="1:15">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-    </row>
-    <row r="149" spans="1:15">
-      <c r="A149" s="4"/>
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-    </row>
-    <row r="150" spans="1:15">
-      <c r="A150" s="4"/>
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-    </row>
-    <row r="151" spans="1:15">
-      <c r="A151" s="4"/>
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
-      <c r="F151" s="4"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
-      <c r="K151" s="4"/>
-      <c r="L151" s="4"/>
-      <c r="M151" s="4"/>
-      <c r="N151" s="4"/>
-      <c r="O151" s="4"/>
-    </row>
-    <row r="152" spans="1:15">
-      <c r="A152" s="4"/>
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
-      <c r="F152" s="4"/>
-      <c r="G152" s="4"/>
-      <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
-      <c r="K152" s="4"/>
-      <c r="L152" s="4"/>
-      <c r="M152" s="4"/>
-      <c r="N152" s="4"/>
-      <c r="O152" s="4"/>
-    </row>
-    <row r="153" spans="1:15">
-      <c r="A153" s="4"/>
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
-      <c r="F153" s="4"/>
-      <c r="G153" s="4"/>
-      <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
-      <c r="K153" s="4"/>
-      <c r="L153" s="4"/>
-      <c r="M153" s="4"/>
-      <c r="N153" s="4"/>
-      <c r="O153" s="4"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
